--- a/binaries/list.xlsx
+++ b/binaries/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuya.araki/Documents/Development/bi-claft/binaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B56B78F-60E0-CA48-BACB-47A19A279EF0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9717CE26-F23B-9C41-8FFF-1307AB5FEAB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33320" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{CC5D959B-383F-384F-9FC6-8EAB7330237E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>hoge</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -441,11 +447,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{997CF682-6CEC-8B43-88AD-62CA8DF1CB50}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -499,6 +503,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
